--- a/opencart.xlsx
+++ b/opencart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\sqa photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\sqa photo\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F3064-552B-45FF-95C3-5F47E792EFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF13B3D-AA45-4010-A58E-6EA9BE9A9113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEC2F730-9B32-4F7C-948E-E8F3156FEC50}"/>
   </bookViews>
@@ -666,11 +666,6 @@
 mandatory fields.</t>
   </si>
   <si>
-    <t>1) open the 
-application in 
-any browser.</t>
-  </si>
-  <si>
     <t>1) user should be logged in, taken to account success page, proper 
 details should be displayed on the page.
 2) user should be taken to the account page and confirmation email should be sent to registered email address.</t>
@@ -1197,6 +1192,11 @@
     <t>1) Open the application.
 2) user is logged in to an account in firefox browser of laptop.
 3) user is logged in with same account of step 2 in chrome browser of mobile device.</t>
+  </si>
+  <si>
+    <t>1) open the 
+application(https://demo.opencart.com/) in 
+any browser.</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2128,16 +2128,16 @@
         <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2145,13 +2145,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,13 +2159,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,13 +2173,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,13 +2187,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,13 +2201,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,13 +2215,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,13 +2229,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,16 +2243,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
@@ -2260,16 +2260,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2277,16 +2277,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,13 +2322,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2336,13 +2336,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,16 +2350,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="F17" s="4">
         <v>12345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2367,16 +2367,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2384,13 +2384,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2440,13 +2440,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2454,13 +2454,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2468,13 +2468,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,13 +2482,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,13 +2496,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD097EDB-E9E9-4683-8D96-212CD6343982}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3045,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>43</v>
@@ -3120,16 +3120,16 @@
         <v>129</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3137,16 +3137,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,16 +3154,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3171,16 +3171,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,10 +3188,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/opencart.xlsx
+++ b/opencart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\sqa photo\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF13B3D-AA45-4010-A58E-6EA9BE9A9113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19732B3A-409E-4451-BE73-1E2A2C8A5293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEC2F730-9B32-4F7C-948E-E8F3156FEC50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CEC2F730-9B32-4F7C-948E-E8F3156FEC50}"/>
   </bookViews>
   <sheets>
     <sheet name="test_scenerios" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="233">
   <si>
     <t>test scenerio id</t>
   </si>
@@ -1187,11 +1187,6 @@
     <t>validate logging out from an account 
 from a single place after logging into 
 the account from different places.</t>
-  </si>
-  <si>
-    <t>1) Open the application.
-2) user is logged in to an account in firefox browser of laptop.
-3) user is logged in with same account of step 2 in chrome browser of mobile device.</t>
   </si>
   <si>
     <t>1) open the 
@@ -2078,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761AC389-A65F-420C-BD9E-586DAF32A400}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2128,7 +2123,7 @@
         <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>139</v>
@@ -3027,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD097EDB-E9E9-4683-8D96-212CD6343982}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -3190,9 +3185,7 @@
       <c r="C8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
